--- a/experiments/Excel files/Graphs/s1c1m1_8_C.xlsx
+++ b/experiments/Excel files/Graphs/s1c1m1_8_C.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charc\eclipse-workspace\TFM_v3\finalExperiments_v3\excel\graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFE2F6-8699-4D51-A400-492D4E802183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CFCAC8-0C7C-4D9F-AD8F-CD495B1B86F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1281,37 +1278,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1337,9 +1304,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="76200" cmpd="dbl">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1883,7 +1850,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Semilla inicial - frontera</c:v>
+            <c:v>Semilla inicial - mejor solución</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3158,7 +3125,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Remplazo directo - mejor frontera</c:v>
+            <c:v>Remplazo directo - mejor solución</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3438,27 +3405,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES_tradnl"/>
-                  <a:t>Mutation</a:t>
+                  <a:rPr lang="es-ES_tradnl" sz="1100"/>
+                  <a:t>Mutation score</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES_tradnl" baseline="0"/>
-                  <a:t> score</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES_tradnl"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3475,16 +3437,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="es-ES_tradnl"/>
@@ -3520,9 +3482,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-ES_tradnl"/>
@@ -3560,20 +3522,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:rPr lang="es-ES_tradnl" sz="1100"/>
                   <a:t>Número de entradas</a:t>
                 </a:r>
               </a:p>
@@ -3592,16 +3554,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="es-ES_tradnl"/>
@@ -3637,9 +3599,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-ES_tradnl"/>
@@ -3658,7 +3620,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14977827050997783"/>
+          <c:y val="0.91541088010358285"/>
+          <c:w val="0.73370288248337034"/>
+          <c:h val="8.4589119896417098E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3672,16 +3644,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="es-ES_tradnl"/>
@@ -3719,7 +3691,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
@@ -4298,10 +4273,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4329,2028 +4304,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="datos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>0.23949999999999999</v>
-          </cell>
-          <cell r="F2">
-            <v>202</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.15720000000000001</v>
-          </cell>
-          <cell r="F4">
-            <v>109</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>9.7299999999999998E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>9.4799999999999995E-2</v>
-          </cell>
-          <cell r="F7">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.122199999999999</v>
-          </cell>
-          <cell r="F8">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0.13219999999999901</v>
-          </cell>
-          <cell r="F9">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>0.10979999999999999</v>
-          </cell>
-          <cell r="F10">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>5.48999999999999E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>7.9899999999999902E-2</v>
-          </cell>
-          <cell r="F12">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>6.9899999999999907E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>0.02</v>
-          </cell>
-          <cell r="F14">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F15">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>0.14219999999999999</v>
-          </cell>
-          <cell r="F16">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>2.2499999999999899E-2</v>
-          </cell>
-          <cell r="F18">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>8.4799999999999903E-2</v>
-          </cell>
-          <cell r="F19">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>6.4899999999999902E-2</v>
-          </cell>
-          <cell r="F20">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>0.17710000000000001</v>
-          </cell>
-          <cell r="F21">
-            <v>133</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>1.24999999999999E-2</v>
-          </cell>
-          <cell r="F22">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0.18210000000000001</v>
-          </cell>
-          <cell r="F23">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="F24">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>6.7400000000000002E-2</v>
-          </cell>
-          <cell r="F25">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>0.112299999999999</v>
-          </cell>
-          <cell r="F26">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>0.12719999999999901</v>
-          </cell>
-          <cell r="F27">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>0.04</v>
-          </cell>
-          <cell r="F28">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>0.12970000000000001</v>
-          </cell>
-          <cell r="F29">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>9.2299999999999993E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>0.1447</v>
-          </cell>
-          <cell r="F31">
-            <v>109</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>0.12470000000000001</v>
-          </cell>
-          <cell r="F32">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>0.1497</v>
-          </cell>
-          <cell r="F33">
-            <v>124</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>6.9899999999999907E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>8.4799999999999903E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>0.1497</v>
-          </cell>
-          <cell r="F37">
-            <v>124</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>7.9899999999999902E-2</v>
-          </cell>
-          <cell r="F38">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F39">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>9.7299999999999998E-2</v>
-          </cell>
-          <cell r="F40">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F41">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F42">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>0.122199999999999</v>
-          </cell>
-          <cell r="F43">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>0.10729999999999899</v>
-          </cell>
-          <cell r="F44">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>5.48999999999999E-2</v>
-          </cell>
-          <cell r="F45">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>6.7400000000000002E-2</v>
-          </cell>
-          <cell r="F46">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>0.112299999999999</v>
-          </cell>
-          <cell r="F47">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>0.13719999999999999</v>
-          </cell>
-          <cell r="F48">
-            <v>109</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>0.1447</v>
-          </cell>
-          <cell r="F49">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>8.9799999999999894E-2</v>
-          </cell>
-          <cell r="F50">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F51">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F52">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53">
-            <v>4.2399999999999903E-2</v>
-          </cell>
-          <cell r="F53">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54">
-            <v>0.03</v>
-          </cell>
-          <cell r="F54">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55">
-            <v>0.1198</v>
-          </cell>
-          <cell r="F55">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F56">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57">
-            <v>9.2299999999999993E-2</v>
-          </cell>
-          <cell r="F57">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58">
-            <v>8.2299999999999998E-2</v>
-          </cell>
-          <cell r="F58">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>2.2499999999999899E-2</v>
-          </cell>
-          <cell r="F59">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>0.10729999999999899</v>
-          </cell>
-          <cell r="F60">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61">
-            <v>6.4899999999999902E-2</v>
-          </cell>
-          <cell r="F61">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62">
-            <v>8.4799999999999903E-2</v>
-          </cell>
-          <cell r="F62">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63">
-            <v>7.4899999999999897E-2</v>
-          </cell>
-          <cell r="F63">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64">
-            <v>7.9899999999999902E-2</v>
-          </cell>
-          <cell r="F64">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65">
-            <v>0.12970000000000001</v>
-          </cell>
-          <cell r="F65">
-            <v>109</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66">
-            <v>9.7299999999999998E-2</v>
-          </cell>
-          <cell r="F66">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F67">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F68">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>3.2499999999999897E-2</v>
-          </cell>
-          <cell r="F69">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>0.10729999999999899</v>
-          </cell>
-          <cell r="F70">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>0.1148</v>
-          </cell>
-          <cell r="F71">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>0.13219999999999901</v>
-          </cell>
-          <cell r="F72">
-            <v>112</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>0.112299999999999</v>
-          </cell>
-          <cell r="F73">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>0.112299999999999</v>
-          </cell>
-          <cell r="F74">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>8.4799999999999903E-2</v>
-          </cell>
-          <cell r="F75">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>0.03</v>
-          </cell>
-          <cell r="F76">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77">
-            <v>7.4899999999999897E-2</v>
-          </cell>
-          <cell r="F77">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78">
-            <v>0.1048</v>
-          </cell>
-          <cell r="F78">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80">
-            <v>0.15720000000000001</v>
-          </cell>
-          <cell r="F80">
-            <v>109</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F81">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>9.7299999999999998E-2</v>
-          </cell>
-          <cell r="F82">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83">
-            <v>9.4799999999999995E-2</v>
-          </cell>
-          <cell r="F83">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84">
-            <v>0.122199999999999</v>
-          </cell>
-          <cell r="F84">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85">
-            <v>0.13219999999999901</v>
-          </cell>
-          <cell r="F85">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86">
-            <v>0.10979999999999999</v>
-          </cell>
-          <cell r="F86">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87">
-            <v>5.48999999999999E-2</v>
-          </cell>
-          <cell r="F87">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>7.9899999999999902E-2</v>
-          </cell>
-          <cell r="F88">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>6.9899999999999907E-2</v>
-          </cell>
-          <cell r="F89">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>0.02</v>
-          </cell>
-          <cell r="F90">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F91">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>0.14219999999999999</v>
-          </cell>
-          <cell r="F92">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F93">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>2.2499999999999899E-2</v>
-          </cell>
-          <cell r="F94">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>8.4799999999999903E-2</v>
-          </cell>
-          <cell r="F95">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96">
-            <v>6.4899999999999902E-2</v>
-          </cell>
-          <cell r="F96">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97">
-            <v>0.17710000000000001</v>
-          </cell>
-          <cell r="F97">
-            <v>133</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98">
-            <v>1.24999999999999E-2</v>
-          </cell>
-          <cell r="F98">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99">
-            <v>0.18210000000000001</v>
-          </cell>
-          <cell r="F99">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="F100">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101">
-            <v>6.7400000000000002E-2</v>
-          </cell>
-          <cell r="F101">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="D156">
-            <v>0.164599999999999</v>
-          </cell>
-          <cell r="F156">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="D157">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F157">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="D158">
-            <v>0.13719999999999999</v>
-          </cell>
-          <cell r="F158">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="D159">
-            <v>0.117299999999999</v>
-          </cell>
-          <cell r="F159">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="D160">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F160">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="D161">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="F161">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="D162">
-            <v>3.2499999999999897E-2</v>
-          </cell>
-          <cell r="F162">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="D163">
-            <v>0.122199999999999</v>
-          </cell>
-          <cell r="F163">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="D164">
-            <v>7.2400000000000006E-2</v>
-          </cell>
-          <cell r="F164">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="D165">
-            <v>0.1721</v>
-          </cell>
-          <cell r="F165">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="D166">
-            <v>0.13719999999999999</v>
-          </cell>
-          <cell r="F166">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="D167">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F167">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="D168">
-            <v>0.13469999999999999</v>
-          </cell>
-          <cell r="F168">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="D169">
-            <v>0.16209999999999999</v>
-          </cell>
-          <cell r="F169">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="D170">
-            <v>0.17710000000000001</v>
-          </cell>
-          <cell r="F170">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="D171">
-            <v>0.1946</v>
-          </cell>
-          <cell r="F171">
-            <v>128</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="D172">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="F172">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="D173">
-            <v>0.12470000000000001</v>
-          </cell>
-          <cell r="F173">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="D174">
-            <v>8.9799999999999894E-2</v>
-          </cell>
-          <cell r="F174">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="D175">
-            <v>5.74E-2</v>
-          </cell>
-          <cell r="F175">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="D176">
-            <v>5.2400000000000002E-2</v>
-          </cell>
-          <cell r="F176">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="D177">
-            <v>0.04</v>
-          </cell>
-          <cell r="F177">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="D178">
-            <v>9.7299999999999998E-2</v>
-          </cell>
-          <cell r="F178">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="D179">
-            <v>0.15720000000000001</v>
-          </cell>
-          <cell r="F179">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="D180">
-            <v>0.1472</v>
-          </cell>
-          <cell r="F180">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="D181">
-            <v>1.24999999999999E-2</v>
-          </cell>
-          <cell r="F181">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="D182">
-            <v>0.1048</v>
-          </cell>
-          <cell r="F182">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="D183">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F183">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="D184">
-            <v>0.02</v>
-          </cell>
-          <cell r="F184">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="D185">
-            <v>9.2299999999999993E-2</v>
-          </cell>
-          <cell r="F185">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="D186">
-            <v>0.1148</v>
-          </cell>
-          <cell r="F186">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="D187">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F187">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="D188">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F188">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="D189">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="F189">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="D190">
-            <v>0.13469999999999999</v>
-          </cell>
-          <cell r="F190">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="D191">
-            <v>0.04</v>
-          </cell>
-          <cell r="F191">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="D192">
-            <v>1.7499999999999901E-2</v>
-          </cell>
-          <cell r="F192">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="D193">
-            <v>0.10729999999999899</v>
-          </cell>
-          <cell r="F193">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="D194">
-            <v>0.01</v>
-          </cell>
-          <cell r="F194">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="D195">
-            <v>8.2299999999999998E-2</v>
-          </cell>
-          <cell r="F195">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="D196">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F196">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="D197">
-            <v>6.2399999999999997E-2</v>
-          </cell>
-          <cell r="F197">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="D198">
-            <v>0.20199999999999901</v>
-          </cell>
-          <cell r="F198">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="D199">
-            <v>0.04</v>
-          </cell>
-          <cell r="F199">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="D200">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F200">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="D201">
-            <v>0.18459999999999999</v>
-          </cell>
-          <cell r="F201">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="D202">
-            <v>0.102299999999999</v>
-          </cell>
-          <cell r="F202">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="D203">
-            <v>5.48999999999999E-2</v>
-          </cell>
-          <cell r="F203">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="D204">
-            <v>0.13719999999999999</v>
-          </cell>
-          <cell r="F204">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="D205">
-            <v>6.9899999999999907E-2</v>
-          </cell>
-          <cell r="F205">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="D206">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F206">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="D207">
-            <v>0.10729999999999899</v>
-          </cell>
-          <cell r="F207">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="D208">
-            <v>0.1721</v>
-          </cell>
-          <cell r="F208">
-            <v>107</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="D209">
-            <v>4.2399999999999903E-2</v>
-          </cell>
-          <cell r="F209">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="D210">
-            <v>0.12970000000000001</v>
-          </cell>
-          <cell r="F210">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="D211">
-            <v>0.1048</v>
-          </cell>
-          <cell r="F211">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="D212">
-            <v>0.1522</v>
-          </cell>
-          <cell r="F212">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="D213">
-            <v>7.7399999999999997E-2</v>
-          </cell>
-          <cell r="F213">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="D214">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F214">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="D215">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F215">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="D216">
-            <v>0.1198</v>
-          </cell>
-          <cell r="F216">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="D233">
-            <v>1.7499999999999901E-2</v>
-          </cell>
-          <cell r="F233">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="D234">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F234">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="D235">
-            <v>5.2400000000000002E-2</v>
-          </cell>
-          <cell r="F235">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="D236">
-            <v>5.74E-2</v>
-          </cell>
-          <cell r="F236">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="D237">
-            <v>0.03</v>
-          </cell>
-          <cell r="F237">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="D238">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F238">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="D239">
-            <v>1.7499999999999901E-2</v>
-          </cell>
-          <cell r="F239">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="D240">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F240">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="D241">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F241">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="D242">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F242">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="D243">
-            <v>5.2400000000000002E-2</v>
-          </cell>
-          <cell r="F243">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="D244">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F244">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="D245">
-            <v>7.2400000000000006E-2</v>
-          </cell>
-          <cell r="F245">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="D246">
-            <v>5.48999999999999E-2</v>
-          </cell>
-          <cell r="F246">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="D247">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F247">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="D248">
-            <v>0.04</v>
-          </cell>
-          <cell r="F248">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="D249">
-            <v>4.2399999999999903E-2</v>
-          </cell>
-          <cell r="F249">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="D250">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F250">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="D251">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F251">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="D252">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F252">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="D253">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F253">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="D254">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F254">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="D255">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F255">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="D256">
-            <v>5.9899999999999898E-2</v>
-          </cell>
-          <cell r="F256">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="D257">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F257">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="D258">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F258">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="D259">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F259">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F260">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="D261">
-            <v>5.74E-2</v>
-          </cell>
-          <cell r="F261">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="D262">
-            <v>5.9899999999999898E-2</v>
-          </cell>
-          <cell r="F262">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="D263">
-            <v>4.2399999999999903E-2</v>
-          </cell>
-          <cell r="F263">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="D264">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F264">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="D265">
-            <v>0.04</v>
-          </cell>
-          <cell r="F265">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="D266">
-            <v>6.4899999999999902E-2</v>
-          </cell>
-          <cell r="F266">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="D267">
-            <v>4.7399999999999998E-2</v>
-          </cell>
-          <cell r="F267">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="D268">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F268">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="D269">
-            <v>5.74E-2</v>
-          </cell>
-          <cell r="F269">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="D270">
-            <v>6.7400000000000002E-2</v>
-          </cell>
-          <cell r="F270">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="D271">
-            <v>6.9899999999999907E-2</v>
-          </cell>
-          <cell r="F271">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="D272">
-            <v>5.74E-2</v>
-          </cell>
-          <cell r="F272">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="D273">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F273">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="D274">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F274">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="D275">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F275">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="D276">
-            <v>5.9899999999999898E-2</v>
-          </cell>
-          <cell r="F276">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="D277">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F277">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="D278">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F278">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="D279">
-            <v>0.02</v>
-          </cell>
-          <cell r="F279">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="D280">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F280">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="D281">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F281">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="D282">
-            <v>0.02</v>
-          </cell>
-          <cell r="F282">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="D283">
-            <v>1.7499999999999901E-2</v>
-          </cell>
-          <cell r="F283">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="D284">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F284">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="D285">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="F285">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="D286">
-            <v>2.2499999999999899E-2</v>
-          </cell>
-          <cell r="F286">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="D287">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F287">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="D288">
-            <v>2.2499999999999899E-2</v>
-          </cell>
-          <cell r="F288">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="D289">
-            <v>4.2399999999999903E-2</v>
-          </cell>
-          <cell r="F289">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="D290">
-            <v>5.48999999999999E-2</v>
-          </cell>
-          <cell r="F290">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="D291">
-            <v>0.04</v>
-          </cell>
-          <cell r="F291">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="D292">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F292">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="D293">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F293">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="D294">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F294">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="D295">
-            <v>8.9799999999999894E-2</v>
-          </cell>
-          <cell r="F295">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="D296">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="F296">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="D297">
-            <v>5.2400000000000002E-2</v>
-          </cell>
-          <cell r="F297">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="D298">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="F298">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="D299">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F299">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="D300">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="F300">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="D301">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F301">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="D302">
-            <v>0.04</v>
-          </cell>
-          <cell r="F302">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="D303">
-            <v>5.9899999999999898E-2</v>
-          </cell>
-          <cell r="F303">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="D304">
-            <v>6.4899999999999902E-2</v>
-          </cell>
-          <cell r="F304">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="D305">
-            <v>7.4999999999999503E-3</v>
-          </cell>
-          <cell r="F305">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="D306">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="F306">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="D307">
-            <v>5.2400000000000002E-2</v>
-          </cell>
-          <cell r="F307">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="D309">
-            <v>4.4900000000000002E-2</v>
-          </cell>
-          <cell r="F309">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="D310">
-            <v>5.9899999999999898E-2</v>
-          </cell>
-          <cell r="F310">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="D311">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F311">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="D312">
-            <v>6.4899999999999902E-2</v>
-          </cell>
-          <cell r="F312">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="D313">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F313">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="D314">
-            <v>5.74E-2</v>
-          </cell>
-          <cell r="F314">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="D315">
-            <v>7.2400000000000006E-2</v>
-          </cell>
-          <cell r="F315">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="D316">
-            <v>4.99E-2</v>
-          </cell>
-          <cell r="F316">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="D317">
-            <v>3.7499999999999901E-2</v>
-          </cell>
-          <cell r="F317">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="D318">
-            <v>2.2499999999999899E-2</v>
-          </cell>
-          <cell r="F318">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="D319">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="F319">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="D320">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="F320">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="D321">
-            <v>7.4999999999999503E-3</v>
-          </cell>
-          <cell r="F321">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="D322">
-            <v>0.03</v>
-          </cell>
-          <cell r="F322">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="D323">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-          <cell r="F323">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="D324">
-            <v>8.9799999999999894E-2</v>
-          </cell>
-          <cell r="F324">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="D325">
-            <v>2.74999999999999E-2</v>
-          </cell>
-          <cell r="F325">
-            <v>14</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
